--- a/portfolio_returns top14 (regular).xlsx
+++ b/portfolio_returns top14 (regular).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nino.tkemaladze\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d65417836c382aee/Desktop/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_D28EE9483D5C42623C241CBB3BEF80C410E6BD78" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C8989C4-6A52-4629-A1BB-8CE809241ED8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -399,24 +400,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -428,7 +429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -448,7 +449,7 @@
         <v>2.8856487609008439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -468,7 +469,7 @@
         <v>3.8806227018571131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -488,7 +489,7 @@
         <v>-0.52369704021132901</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -508,7 +509,7 @@
         <v>2.5171488007558529</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -528,7 +529,7 @@
         <v>2.9349140588439919</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -548,7 +549,7 @@
         <v>2.0503461477348899</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -568,7 +569,7 @@
         <v>5.2398036169568787</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -588,7 +589,7 @@
         <v>-2.4004892925127752</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -608,7 +609,7 @@
         <v>2.1022580898885339</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -628,7 +629,7 @@
         <v>-3.243601174409168</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -648,7 +649,7 @@
         <v>-3.6026009737470481</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>4</v>
       </c>
